--- a/Question_Sets/Software skills/Figma.xlsx
+++ b/Question_Sets/Software skills/Figma.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You open a new Figma file on your browser app, and you receive the message in the screenshot below, indicating that some of the fonts are missing. These fonts are already installed on your computer, so you run the Font Helper application. What should you do next to access the missing fonts?', 'ques_type': 2, 'options': ['Restart your computer', 'Import the font into the Figma browser application. ', 'Refresh the Figma browser application', 'Clear your browser cache.'], 'score': 'Refresh the Figma browser application'}, {'title': 'You are using the auto layout feature on Figma, and you want to maintain a spacing of 50 pixels between the text “Button” and the envelope icon shown below. You also want a padding of 100 pixels for the horizontal sides and 100 pixels for the vertical sides of the frame.What values should you type into the boxes marked 1, 2, and 3 below?', 'ques_type': 2, 'options': ['25, 25, and 50', '50,100, and 100', '25, 25, and 25', '100, 100, and 100'], 'score': '50,100, and 100'}, {'title': 'You just bought a UI kit with a button component as shown below. You want to change the background color of the “Main component” button on the left to black.Which instance(s) on the right side will also change their background color to black?', 'ques_type': 2, 'options': ['All of the instances', 'Instance 1 only', 'None of the instances', 'Instance 4 only'], 'score': 'Instance 4 only'}, {'title': 'You’re creating a prototype for a presentation. You have two starting slides in Figma as seen below, but you want the second frame to play three seconds after starting the prototype from the “Introduction” frame. You want to ensure a smooth transition from the first to the second frame.What action should you take from the popup below?', 'ques_type': 2, 'options': ['Change the effect to “Slide in.”', 'Reset the scroll position.', 'Change your trigger to “After Delay.”\xa0', 'Smart animate the two frames as "Matching layers."'], 'score': 'Change your trigger to “After Delay.”'}]</t>
+    <t>questions = [
+    {
+        "title": "You open a new Figma file on your browser app, and you receive the message in the screenshot below, indicating that some of the fonts are missing. These fonts are already installed on your computer, so you run the Font Helper application. What should you do next to access the missing fonts?",
+        "ques_type": 2,
+        "options": [
+            "Restart your computer",
+            "Import the font into the Figma browser application. ",
+            "Refresh the Figma browser application",
+            "Clear your browser cache."
+        ],
+        "score": "Refresh the Figma browser application"
+    },
+    {
+        "title": "You are using the auto layout feature on Figma, and you want to maintain a spacing of 50 pixels between the text \u201cButton\u201d and the envelope icon shown below. You also want a padding of 100 pixels for the horizontal sides and 100 pixels for the vertical sides of the frame.What values should you type into the boxes marked 1, 2, and 3 below?",
+        "ques_type": 2,
+        "options": [
+            "25, 25, and 50",
+            "50,100, and 100",
+            "25, 25, and 25",
+            "100, 100, and 100"
+        ],
+        "score": "50,100, and 100"
+    },
+    {
+        "title": "You just bought a UI kit with a button component as shown below. You want to change the background color of the \u201cMain component\u201d button on the left to black.Which instance(s) on the right side will also change their background color to black?",
+        "ques_type": 2,
+        "options": [
+            "All of the instances",
+            "Instance 1 only",
+            "None of the instances",
+            "Instance 4 only"
+        ],
+        "score": "Instance 4 only"
+    },
+    {
+        "title": "You\u2019re creating a prototype for a presentation. You have two starting slides in Figma as seen below, but you want the second frame to play three seconds after starting the prototype from the \u201cIntroduction\u201d frame. You want to ensure a smooth transition from the first to the second frame.What action should you take from the popup below?",
+        "ques_type": 2,
+        "options": [
+            "Change the effect to \u201cSlide in.\u201d",
+            "Reset the scroll position.",
+            "Change your trigger to \u201cAfter Delay.\u201d\u00a0",
+            "Smart animate the two frames as \"Matching layers.\""
+        ],
+        "score": "Change your trigger to \u201cAfter Delay.\u201d"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
